--- a/vtiger/target/test-classes/TestData/vtiger_testcase_data.xlsx
+++ b/vtiger/target/test-classes/TestData/vtiger_testcase_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\eclipse-workspace\vtiger\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\git\repository6\vtiger\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874773C5-9037-494B-8FCB-917C4FD97335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DF8550-D961-452E-82A5-43C535DE172F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F265C6F1-22A9-4C82-84CA-F662E8F788A0}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>email</t>
   </si>
@@ -54,6 +54,69 @@
   </si>
   <si>
     <t>Administrator - Contacts - vtiger CRM 5 - Commercial Open Source CRM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banking </t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Assigned to</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>expected Result</t>
+  </si>
+  <si>
+    <t>Bank of Baroda</t>
+  </si>
+  <si>
+    <t>Administrator - Organizations - vtiger CRM 5 - Commercial Open Source CRM</t>
+  </si>
+  <si>
+    <t>Lead Source</t>
+  </si>
+  <si>
+    <t>Cold Call</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>joshma</t>
+  </si>
+  <si>
+    <t>josef</t>
+  </si>
+  <si>
+    <t>joshmaj@gmail.com</t>
+  </si>
+  <si>
+    <t>harshitha</t>
+  </si>
+  <si>
+    <t>kumari</t>
+  </si>
+  <si>
+    <t>harshitha1@gmail.com</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Word of Mouth</t>
   </si>
 </sst>
 </file>
@@ -89,12 +152,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,11 +179,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -430,72 +500,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD13C3E-641C-4A3C-BEF6-48949F4B1593}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="85" customWidth="1"/>
+    <col min="4" max="4" width="72.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{EC3BE383-E7AE-4855-9CF0-A3DE2273D121}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{996D325D-EDBD-41E7-9E4C-2686CFBF25D4}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{4D2509F2-CB71-45BF-8626-ED53EBEF5120}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1932851B-B226-45F4-9E02-3BE80A897C77}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="68.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
